--- a/biology/Zoologie/Eukoenenia_potiguar/Eukoenenia_potiguar.xlsx
+++ b/biology/Zoologie/Eukoenenia_potiguar/Eukoenenia_potiguar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eukoenenia potiguar est une espèce de palpigrades de la famille des Eukoeneniidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Rio Grande do Norte au Brésil[1]. Elle se rencontre dans la grotte Gruta do Vale à Felipe Guerra et dans la grotte Gruta Boca de Peixe à Governador Dix-Sept Rosado.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Rio Grande do Norte au Brésil. Elle se rencontre dans la grotte Gruta do Vale à Felipe Guerra et dans la grotte Gruta Boca de Peixe à Governador Dix-Sept Rosado.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 1,085 mm, le mâle paratype 1,155 mm et les femelles 1,150, 1,220 mm et 1,225 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 1,085 mm, le mâle paratype 1,155 mm et les femelles 1,150, 1,220 mm et 1,225 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ferreira, Souza, Machado &amp; Brescovit, 2011 : Description of a new Eukoenenia (Palpigradi: Eukoeneniidae) and Metagonia (Araneae: Pholcidae) from Brazilian caves, with notes on their ecological interactions. Journal of Arachnology, vol. 39, no 3, p. 409-419 (texte intégral).</t>
         </is>
